--- a/poverty_measurement/input/indice_precios.xlsx
+++ b/poverty_measurement/input/indice_precios.xlsx
@@ -149,13 +149,13 @@
         <v>21</v>
       </c>
       <c r="C1" s="1">
-        <v>16943.932945251465</v>
+        <v>14939.133842468262</v>
       </c>
       <c r="D1" s="1">
-        <v>69052.0859375</v>
+        <v>65250.04296875</v>
       </c>
       <c r="E1" s="1">
-        <v>24.537900924682617</v>
+        <v>22.895208358764648</v>
       </c>
       <c r="F1" s="2">
         <v>43800</v>
@@ -169,10 +169,10 @@
         <v>22</v>
       </c>
       <c r="C2" s="1">
-        <v>69052.085052490234</v>
+        <v>65250.044189453125</v>
       </c>
       <c r="D2" s="1">
-        <v>69052.0859375</v>
+        <v>65250.04296875</v>
       </c>
       <c r="E2" s="1">
         <v>100</v>
@@ -189,13 +189,13 @@
         <v>23</v>
       </c>
       <c r="C3" s="1">
-        <v>74296.450073242188</v>
+        <v>70582.924926757813</v>
       </c>
       <c r="D3" s="1">
-        <v>69052.0859375</v>
+        <v>65250.04296875</v>
       </c>
       <c r="E3" s="1">
-        <v>107.59479522705078</v>
+        <v>108.17299652099609</v>
       </c>
       <c r="F3" s="2">
         <v>43891</v>
@@ -209,13 +209,13 @@
         <v>21</v>
       </c>
       <c r="C4" s="1">
-        <v>42256.855178833008</v>
+        <v>40919.567733764648</v>
       </c>
       <c r="D4" s="1">
-        <v>69052.0859375</v>
+        <v>65250.04296875</v>
       </c>
       <c r="E4" s="1">
-        <v>61.195625305175781</v>
+        <v>62.711940765380859</v>
       </c>
       <c r="F4" s="2">
         <v>43800</v>
@@ -229,13 +229,13 @@
         <v>24</v>
       </c>
       <c r="C5" s="1">
-        <v>13517.693359375</v>
+        <v>14067.2919921875</v>
       </c>
       <c r="D5" s="1">
-        <v>69052.0859375</v>
+        <v>65250.04296875</v>
       </c>
       <c r="E5" s="1">
-        <v>19.576082229614258</v>
+        <v>21.559053421020508</v>
       </c>
       <c r="F5" s="2">
         <v>43831</v>
@@ -249,13 +249,13 @@
         <v>22</v>
       </c>
       <c r="C6" s="1">
-        <v>71337.816619873047</v>
+        <v>65259.248359680176</v>
       </c>
       <c r="D6" s="1">
-        <v>69052.0859375</v>
+        <v>65250.04296875</v>
       </c>
       <c r="E6" s="1">
-        <v>103.31015777587891</v>
+        <v>100.01410675048828</v>
       </c>
       <c r="F6" s="2">
         <v>43862</v>
@@ -269,13 +269,13 @@
         <v>23</v>
       </c>
       <c r="C7" s="1">
-        <v>83036.83837890625</v>
+        <v>77433.926452636719</v>
       </c>
       <c r="D7" s="1">
-        <v>69052.0859375</v>
+        <v>65250.04296875</v>
       </c>
       <c r="E7" s="1">
-        <v>120.25247192382813</v>
+        <v>118.672607421875</v>
       </c>
       <c r="F7" s="2">
         <v>43891</v>
@@ -289,13 +289,13 @@
         <v>22</v>
       </c>
       <c r="C8" s="1">
-        <v>75064.825439453125</v>
+        <v>70040.8759765625</v>
       </c>
       <c r="D8" s="1">
-        <v>69052.0859375</v>
+        <v>65250.04296875</v>
       </c>
       <c r="E8" s="1">
-        <v>108.70754241943359</v>
+        <v>107.34226989746094</v>
       </c>
       <c r="F8" s="2">
         <v>43862</v>
@@ -309,13 +309,13 @@
         <v>23</v>
       </c>
       <c r="C9" s="1">
-        <v>74968.466491699219</v>
+        <v>72030.512268066406</v>
       </c>
       <c r="D9" s="1">
-        <v>69052.0859375</v>
+        <v>65250.04296875</v>
       </c>
       <c r="E9" s="1">
-        <v>108.5679931640625</v>
+        <v>110.39151763916016</v>
       </c>
       <c r="F9" s="2">
         <v>43891</v>
@@ -329,13 +329,13 @@
         <v>22</v>
       </c>
       <c r="C10" s="1">
-        <v>82433.58642578125</v>
+        <v>79300.313690185547</v>
       </c>
       <c r="D10" s="1">
-        <v>69052.0859375</v>
+        <v>65250.04296875</v>
       </c>
       <c r="E10" s="1">
-        <v>119.37885284423828</v>
+        <v>121.53296661376953</v>
       </c>
       <c r="F10" s="2">
         <v>43862</v>
@@ -349,13 +349,13 @@
         <v>23</v>
       </c>
       <c r="C11" s="1">
-        <v>87761.97705078125</v>
+        <v>83847.678100585938</v>
       </c>
       <c r="D11" s="1">
-        <v>69052.0859375</v>
+        <v>65250.04296875</v>
       </c>
       <c r="E11" s="1">
-        <v>127.09532928466797</v>
+        <v>128.50210571289063</v>
       </c>
       <c r="F11" s="2">
         <v>43891</v>
@@ -369,13 +369,13 @@
         <v>22</v>
       </c>
       <c r="C12" s="1">
-        <v>82420.915771484375</v>
+        <v>78289.461273193359</v>
       </c>
       <c r="D12" s="1">
-        <v>69052.0859375</v>
+        <v>65250.04296875</v>
       </c>
       <c r="E12" s="1">
-        <v>119.36050415039063</v>
+        <v>119.98377227783203</v>
       </c>
       <c r="F12" s="2">
         <v>43862</v>
@@ -389,13 +389,13 @@
         <v>22</v>
       </c>
       <c r="C13" s="1">
-        <v>82562.683441162109</v>
+        <v>78436.992294311523</v>
       </c>
       <c r="D13" s="1">
-        <v>69052.0859375</v>
+        <v>65250.04296875</v>
       </c>
       <c r="E13" s="1">
-        <v>119.56580352783203</v>
+        <v>120.20986938476563</v>
       </c>
       <c r="F13" s="2">
         <v>43862</v>
@@ -409,13 +409,13 @@
         <v>22</v>
       </c>
       <c r="C14" s="1">
-        <v>57613.002990722656</v>
+        <v>59955.417297363281</v>
       </c>
       <c r="D14" s="1">
-        <v>69052.0859375</v>
+        <v>65250.04296875</v>
       </c>
       <c r="E14" s="1">
-        <v>83.434120178222656</v>
+        <v>91.885635375976563</v>
       </c>
       <c r="F14" s="2">
         <v>43862</v>
@@ -429,13 +429,13 @@
         <v>23</v>
       </c>
       <c r="C15" s="1">
-        <v>25968.348937988281</v>
+        <v>27024.163757324219</v>
       </c>
       <c r="D15" s="1">
-        <v>69052.0859375</v>
+        <v>65250.04296875</v>
       </c>
       <c r="E15" s="1">
-        <v>37.606899261474609</v>
+        <v>41.416316986083984</v>
       </c>
       <c r="F15" s="2">
         <v>43891</v>
@@ -449,13 +449,13 @@
         <v>22</v>
       </c>
       <c r="C16" s="1">
-        <v>61976.142211914063</v>
+        <v>58509.949096679688</v>
       </c>
       <c r="D16" s="1">
-        <v>69052.0859375</v>
+        <v>65250.04296875</v>
       </c>
       <c r="E16" s="1">
-        <v>89.75274658203125</v>
+        <v>89.670364379882813</v>
       </c>
       <c r="F16" s="2">
         <v>43862</v>
@@ -469,13 +469,13 @@
         <v>23</v>
       </c>
       <c r="C17" s="1">
-        <v>63708.431274414063</v>
+        <v>59564.419311523438</v>
       </c>
       <c r="D17" s="1">
-        <v>69052.0859375</v>
+        <v>65250.04296875</v>
       </c>
       <c r="E17" s="1">
-        <v>92.26141357421875</v>
+        <v>91.286407470703125</v>
       </c>
       <c r="F17" s="2">
         <v>43891</v>
@@ -489,13 +489,13 @@
         <v>24</v>
       </c>
       <c r="C18" s="1">
-        <v>62491.807006835938</v>
+        <v>59046.580902099609</v>
       </c>
       <c r="D18" s="1">
-        <v>69052.0859375</v>
+        <v>65250.04296875</v>
       </c>
       <c r="E18" s="1">
-        <v>90.499519348144531</v>
+        <v>90.492782592773438</v>
       </c>
       <c r="F18" s="2">
         <v>43831</v>
@@ -509,13 +509,13 @@
         <v>22</v>
       </c>
       <c r="C19" s="1">
-        <v>86908.28369140625</v>
+        <v>83458.108734130859</v>
       </c>
       <c r="D19" s="1">
-        <v>69052.0859375</v>
+        <v>65250.04296875</v>
       </c>
       <c r="E19" s="1">
-        <v>125.85902404785156</v>
+        <v>127.90505981445313</v>
       </c>
       <c r="F19" s="2">
         <v>43862</v>
@@ -529,13 +529,13 @@
         <v>23</v>
       </c>
       <c r="C20" s="1">
-        <v>28895.429229736328</v>
+        <v>30070.252471923828</v>
       </c>
       <c r="D20" s="1">
-        <v>69052.0859375</v>
+        <v>65250.04296875</v>
       </c>
       <c r="E20" s="1">
-        <v>41.845844268798828</v>
+        <v>46.084648132324219</v>
       </c>
       <c r="F20" s="2">
         <v>43891</v>
@@ -549,13 +549,13 @@
         <v>24</v>
       </c>
       <c r="C21" s="1">
-        <v>73628.248962402344</v>
+        <v>70885.221343994141</v>
       </c>
       <c r="D21" s="1">
-        <v>69052.0859375</v>
+        <v>65250.04296875</v>
       </c>
       <c r="E21" s="1">
-        <v>106.62712097167969</v>
+        <v>108.63628387451172</v>
       </c>
       <c r="F21" s="2">
         <v>43831</v>
@@ -569,13 +569,13 @@
         <v>22</v>
       </c>
       <c r="C22" s="1">
-        <v>87008.8701171875</v>
+        <v>81193.325012207031</v>
       </c>
       <c r="D22" s="1">
-        <v>69052.0859375</v>
+        <v>65250.04296875</v>
       </c>
       <c r="E22" s="1">
-        <v>126.00469207763672</v>
+        <v>124.43413543701172</v>
       </c>
       <c r="F22" s="2">
         <v>43862</v>
@@ -589,13 +589,13 @@
         <v>22</v>
       </c>
       <c r="C23" s="1">
-        <v>82389.598342895508</v>
+        <v>79005.12092590332</v>
       </c>
       <c r="D23" s="1">
-        <v>69052.0859375</v>
+        <v>65250.04296875</v>
       </c>
       <c r="E23" s="1">
-        <v>119.31514739990234</v>
+        <v>121.08056640625</v>
       </c>
       <c r="F23" s="2">
         <v>43862</v>
@@ -609,13 +609,13 @@
         <v>23</v>
       </c>
       <c r="C24" s="1">
-        <v>96095.920959472656</v>
+        <v>93580.482391357422</v>
       </c>
       <c r="D24" s="1">
-        <v>69052.0859375</v>
+        <v>65250.04296875</v>
       </c>
       <c r="E24" s="1">
-        <v>139.16439819335938</v>
+        <v>143.41827392578125</v>
       </c>
       <c r="F24" s="2">
         <v>43891</v>
@@ -629,13 +629,13 @@
         <v>22</v>
       </c>
       <c r="C25" s="1">
-        <v>86192.529632568359</v>
+        <v>81466.170288085938</v>
       </c>
       <c r="D25" s="1">
-        <v>69052.0859375</v>
+        <v>65250.04296875</v>
       </c>
       <c r="E25" s="1">
-        <v>124.82248687744141</v>
+        <v>124.85228729248047</v>
       </c>
       <c r="F25" s="2">
         <v>43862</v>
@@ -649,13 +649,13 @@
         <v>22</v>
       </c>
       <c r="C26" s="1">
-        <v>74827.125473022461</v>
+        <v>71634.008277893066</v>
       </c>
       <c r="D26" s="1">
-        <v>69052.0859375</v>
+        <v>65250.04296875</v>
       </c>
       <c r="E26" s="1">
-        <v>108.36331176757813</v>
+        <v>109.78385162353516</v>
       </c>
       <c r="F26" s="2">
         <v>43862</v>
@@ -669,13 +669,13 @@
         <v>23</v>
       </c>
       <c r="C27" s="1">
-        <v>68254.54833984375</v>
+        <v>64794.205810546875</v>
       </c>
       <c r="D27" s="1">
-        <v>69052.0859375</v>
+        <v>65250.04296875</v>
       </c>
       <c r="E27" s="1">
-        <v>98.845016479492188</v>
+        <v>99.301399230957031</v>
       </c>
       <c r="F27" s="2">
         <v>43891</v>
@@ -689,13 +689,13 @@
         <v>25</v>
       </c>
       <c r="C28" s="1">
-        <v>35860.929763793945</v>
+        <v>34325.952499389648</v>
       </c>
       <c r="D28" s="1">
-        <v>69052.0859375</v>
+        <v>65250.04296875</v>
       </c>
       <c r="E28" s="1">
-        <v>51.933158874511719</v>
+        <v>52.606788635253906</v>
       </c>
       <c r="F28" s="2">
         <v>43770</v>
@@ -709,13 +709,13 @@
         <v>21</v>
       </c>
       <c r="C29" s="1">
-        <v>34192.914031982422</v>
+        <v>32091.286102294922</v>
       </c>
       <c r="D29" s="1">
-        <v>69052.0859375</v>
+        <v>65250.04296875</v>
       </c>
       <c r="E29" s="1">
-        <v>49.517570495605469</v>
+        <v>49.182014465332031</v>
       </c>
       <c r="F29" s="2">
         <v>43800</v>
@@ -729,13 +729,13 @@
         <v>22</v>
       </c>
       <c r="C30" s="1">
-        <v>91074.077514648438</v>
+        <v>86440.187683105469</v>
       </c>
       <c r="D30" s="1">
-        <v>69052.0859375</v>
+        <v>65250.04296875</v>
       </c>
       <c r="E30" s="1">
-        <v>131.89186096191406</v>
+        <v>132.47529602050781</v>
       </c>
       <c r="F30" s="2">
         <v>43862</v>
@@ -749,13 +749,13 @@
         <v>23</v>
       </c>
       <c r="C31" s="1">
-        <v>81655.02978515625</v>
+        <v>75771.460723876953</v>
       </c>
       <c r="D31" s="1">
-        <v>69052.0859375</v>
+        <v>65250.04296875</v>
       </c>
       <c r="E31" s="1">
-        <v>118.25135803222656</v>
+        <v>116.12477111816406</v>
       </c>
       <c r="F31" s="2">
         <v>43891</v>
@@ -769,13 +769,13 @@
         <v>22</v>
       </c>
       <c r="C32" s="1">
-        <v>79973.484771728516</v>
+        <v>76241.357879638672</v>
       </c>
       <c r="D32" s="1">
-        <v>69052.0859375</v>
+        <v>65250.04296875</v>
       </c>
       <c r="E32" s="1">
-        <v>115.81617736816406</v>
+        <v>116.84491729736328</v>
       </c>
       <c r="F32" s="2">
         <v>43862</v>
@@ -789,13 +789,13 @@
         <v>23</v>
       </c>
       <c r="C33" s="1">
-        <v>50431.938903808594</v>
+        <v>43503.384338378906</v>
       </c>
       <c r="D33" s="1">
-        <v>69052.0859375</v>
+        <v>65250.04296875</v>
       </c>
       <c r="E33" s="1">
-        <v>73.034637451171875</v>
+        <v>66.671806335449219</v>
       </c>
       <c r="F33" s="2">
         <v>43891</v>
@@ -809,13 +809,13 @@
         <v>21</v>
       </c>
       <c r="C34" s="1">
-        <v>28709.891357421875</v>
+        <v>27133.586547851563</v>
       </c>
       <c r="D34" s="1">
-        <v>69052.0859375</v>
+        <v>65250.04296875</v>
       </c>
       <c r="E34" s="1">
-        <v>41.577152252197266</v>
+        <v>41.584014892578125</v>
       </c>
       <c r="F34" s="2">
         <v>43800</v>
@@ -829,13 +829,13 @@
         <v>22</v>
       </c>
       <c r="C35" s="1">
-        <v>90726.416198730469</v>
+        <v>86932.644134521484</v>
       </c>
       <c r="D35" s="1">
-        <v>69052.0859375</v>
+        <v>65250.04296875</v>
       </c>
       <c r="E35" s="1">
-        <v>131.38838195800781</v>
+        <v>133.23001098632813</v>
       </c>
       <c r="F35" s="2">
         <v>43862</v>
@@ -849,13 +849,13 @@
         <v>23</v>
       </c>
       <c r="C36" s="1">
-        <v>71413.159301757813</v>
+        <v>66085.903549194336</v>
       </c>
       <c r="D36" s="1">
-        <v>69052.0859375</v>
+        <v>65250.04296875</v>
       </c>
       <c r="E36" s="1">
-        <v>103.41926574707031</v>
+        <v>101.28101348876953</v>
       </c>
       <c r="F36" s="2">
         <v>43891</v>
@@ -869,13 +869,13 @@
         <v>25</v>
       </c>
       <c r="C37" s="1">
-        <v>31548.015090942383</v>
+        <v>30637.137649536133</v>
       </c>
       <c r="D37" s="1">
-        <v>69052.0859375</v>
+        <v>65250.04296875</v>
       </c>
       <c r="E37" s="1">
-        <v>45.687274932861328</v>
+        <v>46.953437805175781</v>
       </c>
       <c r="F37" s="2">
         <v>43770</v>
@@ -889,13 +889,13 @@
         <v>21</v>
       </c>
       <c r="C38" s="1">
-        <v>45226.843292236328</v>
+        <v>43324.413360595703</v>
       </c>
       <c r="D38" s="1">
-        <v>69052.0859375</v>
+        <v>65250.04296875</v>
       </c>
       <c r="E38" s="1">
-        <v>65.496711730957031</v>
+        <v>66.39752197265625</v>
       </c>
       <c r="F38" s="2">
         <v>43800</v>
@@ -909,13 +909,13 @@
         <v>24</v>
       </c>
       <c r="C39" s="1">
-        <v>36679.926300048828</v>
+        <v>33525.434448242188</v>
       </c>
       <c r="D39" s="1">
-        <v>69052.0859375</v>
+        <v>65250.04296875</v>
       </c>
       <c r="E39" s="1">
-        <v>53.119216918945313</v>
+        <v>51.37994384765625</v>
       </c>
       <c r="F39" s="2">
         <v>43831</v>
@@ -929,13 +929,13 @@
         <v>22</v>
       </c>
       <c r="C40" s="1">
-        <v>67211.868804931641</v>
+        <v>64560.608764648438</v>
       </c>
       <c r="D40" s="1">
-        <v>69052.0859375</v>
+        <v>65250.04296875</v>
       </c>
       <c r="E40" s="1">
-        <v>97.335029602050781</v>
+        <v>98.943397521972656</v>
       </c>
       <c r="F40" s="2">
         <v>43862</v>
@@ -949,13 +949,13 @@
         <v>22</v>
       </c>
       <c r="C41" s="1">
-        <v>76959.203308105469</v>
+        <v>72605.686279296875</v>
       </c>
       <c r="D41" s="1">
-        <v>69052.0859375</v>
+        <v>65250.04296875</v>
       </c>
       <c r="E41" s="1">
-        <v>111.45094299316406</v>
+        <v>111.27301025390625</v>
       </c>
       <c r="F41" s="2">
         <v>43862</v>
@@ -969,13 +969,13 @@
         <v>23</v>
       </c>
       <c r="C42" s="1">
-        <v>63611.154693603516</v>
+        <v>59463.188293457031</v>
       </c>
       <c r="D42" s="1">
-        <v>69052.0859375</v>
+        <v>65250.04296875</v>
       </c>
       <c r="E42" s="1">
-        <v>92.120536804199219</v>
+        <v>91.131263732910156</v>
       </c>
       <c r="F42" s="2">
         <v>43891</v>
@@ -989,13 +989,13 @@
         <v>25</v>
       </c>
       <c r="C43" s="1">
-        <v>35668.865051269531</v>
+        <v>34126.078804016113</v>
       </c>
       <c r="D43" s="1">
-        <v>69052.0859375</v>
+        <v>65250.04296875</v>
       </c>
       <c r="E43" s="1">
-        <v>51.655014038085938</v>
+        <v>52.300468444824219</v>
       </c>
       <c r="F43" s="2">
         <v>43770</v>
@@ -1009,13 +1009,13 @@
         <v>21</v>
       </c>
       <c r="C44" s="1">
-        <v>29556.294677734375</v>
+        <v>27764.985740661621</v>
       </c>
       <c r="D44" s="1">
-        <v>69052.0859375</v>
+        <v>65250.04296875</v>
       </c>
       <c r="E44" s="1">
-        <v>42.802898406982422</v>
+        <v>42.551673889160156</v>
       </c>
       <c r="F44" s="2">
         <v>43800</v>
@@ -1029,13 +1029,13 @@
         <v>24</v>
       </c>
       <c r="C45" s="1">
-        <v>65146.421752929688</v>
+        <v>60761.573669433594</v>
       </c>
       <c r="D45" s="1">
-        <v>69052.0859375</v>
+        <v>65250.04296875</v>
       </c>
       <c r="E45" s="1">
-        <v>94.343887329101563</v>
+        <v>93.121124267578125</v>
       </c>
       <c r="F45" s="2">
         <v>43831</v>
@@ -1049,13 +1049,13 @@
         <v>22</v>
       </c>
       <c r="C46" s="1">
-        <v>83111.447784423828</v>
+        <v>79008.067535400391</v>
       </c>
       <c r="D46" s="1">
-        <v>69052.0859375</v>
+        <v>65250.04296875</v>
       </c>
       <c r="E46" s="1">
-        <v>120.36051940917969</v>
+        <v>121.0850830078125</v>
       </c>
       <c r="F46" s="2">
         <v>43862</v>
@@ -1069,13 +1069,13 @@
         <v>23</v>
       </c>
       <c r="C47" s="1">
-        <v>77916.1611328125</v>
+        <v>73601.553649902344</v>
       </c>
       <c r="D47" s="1">
-        <v>69052.0859375</v>
+        <v>65250.04296875</v>
       </c>
       <c r="E47" s="1">
-        <v>112.8367919921875</v>
+        <v>112.79924011230469</v>
       </c>
       <c r="F47" s="2">
         <v>43891</v>
@@ -1089,13 +1089,13 @@
         <v>21</v>
       </c>
       <c r="C48" s="1">
-        <v>59431.992523193359</v>
+        <v>54864.693862915039</v>
       </c>
       <c r="D48" s="1">
-        <v>69052.0859375</v>
+        <v>65250.04296875</v>
       </c>
       <c r="E48" s="1">
-        <v>86.068351745605469</v>
+        <v>84.083763122558594</v>
       </c>
       <c r="F48" s="2">
         <v>43800</v>
@@ -1109,13 +1109,13 @@
         <v>22</v>
       </c>
       <c r="C49" s="1">
-        <v>82260.005081176758</v>
+        <v>78122.008041381836</v>
       </c>
       <c r="D49" s="1">
-        <v>69052.0859375</v>
+        <v>65250.04296875</v>
       </c>
       <c r="E49" s="1">
-        <v>119.12747192382813</v>
+        <v>119.72713470458984</v>
       </c>
       <c r="F49" s="2">
         <v>43862</v>
@@ -1129,13 +1129,13 @@
         <v>23</v>
       </c>
       <c r="C50" s="1">
-        <v>85163.411666870117</v>
+        <v>82141.12809753418</v>
       </c>
       <c r="D50" s="1">
-        <v>69052.0859375</v>
+        <v>65250.04296875</v>
       </c>
       <c r="E50" s="1">
-        <v>123.33213806152344</v>
+        <v>125.88670349121094</v>
       </c>
       <c r="F50" s="2">
         <v>43891</v>
@@ -1149,13 +1149,13 @@
         <v>23</v>
       </c>
       <c r="C51" s="1">
-        <v>86319.711898803711</v>
+        <v>82346.772552490234</v>
       </c>
       <c r="D51" s="1">
-        <v>69052.0859375</v>
+        <v>65250.04296875</v>
       </c>
       <c r="E51" s="1">
-        <v>125.00666809082031</v>
+        <v>126.20186614990234</v>
       </c>
       <c r="F51" s="2">
         <v>43891</v>
